--- a/performance2.xlsx
+++ b/performance2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan7\Documents\GitHub\python_ai_project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7178F8C-DFE9-45B5-9696-8678863D692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A62B6C6-29E8-4B9F-A15B-E1A20252DD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-5580" windowWidth="28996" windowHeight="15675" xr2:uid="{B904E477-886C-445F-8A70-7BB551B11C29}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>0.62860000000000005</v>
+        <v>0.55120000000000002</v>
       </c>
     </row>
   </sheetData>
